--- a/CDC WORK 2025 - 2026.xlsx
+++ b/CDC WORK 2025 - 2026.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
   <sheets>
     <sheet name="V SEM" sheetId="1" r:id="rId1"/>
     <sheet name="V" sheetId="7" r:id="rId2"/>
     <sheet name="HR" sheetId="2" r:id="rId3"/>
     <sheet name="LC" sheetId="3" r:id="rId4"/>
-    <sheet name="Docs" sheetId="10" r:id="rId5"/>
-    <sheet name="QUIZ" sheetId="9" r:id="rId6"/>
-    <sheet name="TW" sheetId="6" r:id="rId7"/>
-    <sheet name="TT" sheetId="4" r:id="rId8"/>
-    <sheet name="PLINKS" sheetId="5" r:id="rId9"/>
-    <sheet name="CERTIFICATES" sheetId="8" r:id="rId10"/>
+    <sheet name="CC" sheetId="11" r:id="rId5"/>
+    <sheet name="Docs" sheetId="10" r:id="rId6"/>
+    <sheet name="QUIZ" sheetId="9" r:id="rId7"/>
+    <sheet name="TW" sheetId="6" r:id="rId8"/>
+    <sheet name="TT" sheetId="4" r:id="rId9"/>
+    <sheet name="PLINKS" sheetId="5" r:id="rId10"/>
+    <sheet name="CERTIFICATES" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="215">
   <si>
     <t xml:space="preserve">DBMS TRAINING SCHEDULE IN CDC </t>
   </si>
@@ -627,13 +628,73 @@
   </si>
   <si>
     <t>LC - RE 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR - EXAM </t>
+  </si>
+  <si>
+    <t>HOLIDAY</t>
+  </si>
+  <si>
+    <t>CollegeDB</t>
+  </si>
+  <si>
+    <t>LC - SQ 7</t>
+  </si>
+  <si>
+    <t>EXAMS</t>
+  </si>
+  <si>
+    <t>LC - SG -7</t>
+  </si>
+  <si>
+    <t>LC BJ - 9</t>
+  </si>
+  <si>
+    <t>CodeChef</t>
+  </si>
+  <si>
+    <t>Learn SQL</t>
+  </si>
+  <si>
+    <t>Learn Advanced SQL</t>
+  </si>
+  <si>
+    <t>SQL Practice Queries</t>
+  </si>
+  <si>
+    <t>SQL at Work</t>
+  </si>
+  <si>
+    <t>SQL case studies</t>
+  </si>
+  <si>
+    <t>Top SQL Interview Questions</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>No. of Problems</t>
+  </si>
+  <si>
+    <t>CodeChef - CS 2</t>
+  </si>
+  <si>
+    <t>SQL Online Test and Quiz</t>
+  </si>
+  <si>
+    <t>Free Learning</t>
+  </si>
+  <si>
+    <t>Paid Prob</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +720,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -936,7 +1004,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1041,6 +1109,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1048,45 +1121,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1116,7 +1150,45 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1484,16 +1556,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G105" sqref="G105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="31.90625" bestFit="1" customWidth="1"/>
@@ -1501,21 +1573,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
@@ -1703,20 +1775,20 @@
       <c r="B9" s="3">
         <v>45851</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="48"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="51"/>
       <c r="R9" s="17"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.35">
@@ -1845,40 +1917,40 @@
       <c r="B16" s="3">
         <v>45858</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="48"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="51"/>
       <c r="R16" s="17"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>45859</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="51"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="69"/>
       <c r="R17" s="17"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.35">
@@ -1981,20 +2053,20 @@
       <c r="B23" s="3">
         <v>45865</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="48"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="51"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
@@ -2116,20 +2188,20 @@
       <c r="B30" s="3">
         <v>45872</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="48"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="51"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
@@ -2248,20 +2320,20 @@
       <c r="B37" s="3">
         <v>45879</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="48"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="51"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
@@ -2341,58 +2413,58 @@
       <c r="B42" s="3">
         <v>45884</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="51"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="69"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>45885</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="51"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="69"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>45886</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="48"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="51"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
@@ -2508,20 +2580,20 @@
       <c r="B51" s="3">
         <v>45893</v>
       </c>
-      <c r="C51" s="46" t="s">
+      <c r="C51" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="48"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="51"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B52" s="3">
@@ -2566,20 +2638,20 @@
       <c r="B54" s="3">
         <v>45896</v>
       </c>
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="50"/>
-      <c r="M54" s="50"/>
-      <c r="N54" s="51"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="68"/>
+      <c r="M54" s="68"/>
+      <c r="N54" s="69"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B55" s="3">
@@ -2643,73 +2715,73 @@
       <c r="B58" s="3">
         <v>45900</v>
       </c>
-      <c r="C58" s="46" t="s">
+      <c r="C58" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="47"/>
-      <c r="K58" s="47"/>
-      <c r="L58" s="47"/>
-      <c r="M58" s="47"/>
-      <c r="N58" s="48"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="50"/>
+      <c r="M58" s="50"/>
+      <c r="N58" s="51"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B59" s="38">
         <v>45901</v>
       </c>
-      <c r="C59" s="62" t="s">
+      <c r="C59" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="63"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="63"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="63"/>
-      <c r="J59" s="63"/>
-      <c r="K59" s="63"/>
-      <c r="L59" s="63"/>
-      <c r="M59" s="63"/>
-      <c r="N59" s="64"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="53"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="54"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B60" s="38">
         <v>45902</v>
       </c>
-      <c r="C60" s="65"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="66"/>
-      <c r="I60" s="66"/>
-      <c r="J60" s="66"/>
-      <c r="K60" s="66"/>
-      <c r="L60" s="66"/>
-      <c r="M60" s="66"/>
-      <c r="N60" s="67"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="56"/>
+      <c r="J60" s="56"/>
+      <c r="K60" s="56"/>
+      <c r="L60" s="56"/>
+      <c r="M60" s="56"/>
+      <c r="N60" s="57"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B61" s="38">
         <v>45903</v>
       </c>
-      <c r="C61" s="68"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="69"/>
-      <c r="H61" s="69"/>
-      <c r="I61" s="69"/>
-      <c r="J61" s="69"/>
-      <c r="K61" s="69"/>
-      <c r="L61" s="69"/>
-      <c r="M61" s="69"/>
-      <c r="N61" s="70"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="59"/>
+      <c r="M61" s="59"/>
+      <c r="N61" s="60"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B62" s="3">
@@ -2734,56 +2806,56 @@
       <c r="B63" s="3">
         <v>45905</v>
       </c>
-      <c r="C63" s="52" t="s">
+      <c r="C63" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="53"/>
-      <c r="N63" s="54"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="62"/>
+      <c r="J63" s="62"/>
+      <c r="K63" s="62"/>
+      <c r="L63" s="62"/>
+      <c r="M63" s="62"/>
+      <c r="N63" s="63"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B64" s="3">
         <v>45906</v>
       </c>
-      <c r="C64" s="58"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="59"/>
-      <c r="I64" s="59"/>
-      <c r="J64" s="59"/>
-      <c r="K64" s="59"/>
-      <c r="L64" s="59"/>
-      <c r="M64" s="59"/>
-      <c r="N64" s="60"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="65"/>
+      <c r="J64" s="65"/>
+      <c r="K64" s="65"/>
+      <c r="L64" s="65"/>
+      <c r="M64" s="65"/>
+      <c r="N64" s="66"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B65" s="3">
         <v>45907</v>
       </c>
-      <c r="C65" s="46" t="s">
+      <c r="C65" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="47"/>
-      <c r="L65" s="47"/>
-      <c r="M65" s="47"/>
-      <c r="N65" s="48"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
+      <c r="L65" s="50"/>
+      <c r="M65" s="50"/>
+      <c r="N65" s="51"/>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B66" s="3">
@@ -2902,20 +2974,20 @@
       <c r="B72" s="3">
         <v>45914</v>
       </c>
-      <c r="C72" s="46" t="s">
+      <c r="C72" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="47"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="47"/>
-      <c r="H72" s="47"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="47"/>
-      <c r="L72" s="47"/>
-      <c r="M72" s="47"/>
-      <c r="N72" s="48"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="50"/>
+      <c r="N72" s="51"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B73" s="3">
@@ -3033,20 +3105,20 @@
       <c r="B79" s="3">
         <v>45921</v>
       </c>
-      <c r="C79" s="46" t="s">
+      <c r="C79" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="47"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="47"/>
-      <c r="H79" s="47"/>
-      <c r="I79" s="47"/>
-      <c r="J79" s="47"/>
-      <c r="K79" s="47"/>
-      <c r="L79" s="47"/>
-      <c r="M79" s="47"/>
-      <c r="N79" s="48"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="50"/>
+      <c r="K79" s="50"/>
+      <c r="L79" s="50"/>
+      <c r="M79" s="50"/>
+      <c r="N79" s="51"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B80" s="3">
@@ -3162,143 +3234,143 @@
       <c r="B86" s="3">
         <v>45928</v>
       </c>
-      <c r="C86" s="46" t="s">
+      <c r="C86" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D86" s="47"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="47"/>
-      <c r="I86" s="47"/>
-      <c r="J86" s="47"/>
-      <c r="K86" s="47"/>
-      <c r="L86" s="47"/>
-      <c r="M86" s="47"/>
-      <c r="N86" s="48"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="50"/>
+      <c r="I86" s="50"/>
+      <c r="J86" s="50"/>
+      <c r="K86" s="50"/>
+      <c r="L86" s="50"/>
+      <c r="M86" s="50"/>
+      <c r="N86" s="51"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B87" s="3">
         <v>45929</v>
       </c>
-      <c r="C87" s="52" t="s">
+      <c r="C87" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="53"/>
-      <c r="E87" s="53"/>
-      <c r="F87" s="53"/>
-      <c r="G87" s="53"/>
-      <c r="H87" s="53"/>
-      <c r="I87" s="53"/>
-      <c r="J87" s="53"/>
-      <c r="K87" s="53"/>
-      <c r="L87" s="53"/>
-      <c r="M87" s="53"/>
-      <c r="N87" s="54"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="62"/>
+      <c r="H87" s="62"/>
+      <c r="I87" s="62"/>
+      <c r="J87" s="62"/>
+      <c r="K87" s="62"/>
+      <c r="L87" s="62"/>
+      <c r="M87" s="62"/>
+      <c r="N87" s="63"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B88" s="3">
         <v>45930</v>
       </c>
-      <c r="C88" s="55"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="56"/>
-      <c r="G88" s="56"/>
-      <c r="H88" s="56"/>
-      <c r="I88" s="56"/>
-      <c r="J88" s="56"/>
-      <c r="K88" s="56"/>
-      <c r="L88" s="56"/>
-      <c r="M88" s="56"/>
-      <c r="N88" s="57"/>
+      <c r="C88" s="71"/>
+      <c r="D88" s="72"/>
+      <c r="E88" s="72"/>
+      <c r="F88" s="72"/>
+      <c r="G88" s="72"/>
+      <c r="H88" s="72"/>
+      <c r="I88" s="72"/>
+      <c r="J88" s="72"/>
+      <c r="K88" s="72"/>
+      <c r="L88" s="72"/>
+      <c r="M88" s="72"/>
+      <c r="N88" s="73"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B89" s="3">
         <v>45931</v>
       </c>
-      <c r="C89" s="55"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="56"/>
-      <c r="F89" s="56"/>
-      <c r="G89" s="56"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="56"/>
-      <c r="K89" s="56"/>
-      <c r="L89" s="56"/>
-      <c r="M89" s="56"/>
-      <c r="N89" s="57"/>
+      <c r="C89" s="71"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="72"/>
+      <c r="H89" s="72"/>
+      <c r="I89" s="72"/>
+      <c r="J89" s="72"/>
+      <c r="K89" s="72"/>
+      <c r="L89" s="72"/>
+      <c r="M89" s="72"/>
+      <c r="N89" s="73"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B90" s="3">
         <v>45932</v>
       </c>
-      <c r="C90" s="55"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="56"/>
-      <c r="G90" s="56"/>
-      <c r="H90" s="56"/>
-      <c r="I90" s="56"/>
-      <c r="J90" s="56"/>
-      <c r="K90" s="56"/>
-      <c r="L90" s="56"/>
-      <c r="M90" s="56"/>
-      <c r="N90" s="57"/>
+      <c r="C90" s="71"/>
+      <c r="D90" s="72"/>
+      <c r="E90" s="72"/>
+      <c r="F90" s="72"/>
+      <c r="G90" s="72"/>
+      <c r="H90" s="72"/>
+      <c r="I90" s="72"/>
+      <c r="J90" s="72"/>
+      <c r="K90" s="72"/>
+      <c r="L90" s="72"/>
+      <c r="M90" s="72"/>
+      <c r="N90" s="73"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B91" s="3">
         <v>45933</v>
       </c>
-      <c r="C91" s="55"/>
-      <c r="D91" s="56"/>
-      <c r="E91" s="56"/>
-      <c r="F91" s="56"/>
-      <c r="G91" s="56"/>
-      <c r="H91" s="56"/>
-      <c r="I91" s="56"/>
-      <c r="J91" s="56"/>
-      <c r="K91" s="56"/>
-      <c r="L91" s="56"/>
-      <c r="M91" s="56"/>
-      <c r="N91" s="57"/>
+      <c r="C91" s="71"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="72"/>
+      <c r="F91" s="72"/>
+      <c r="G91" s="72"/>
+      <c r="H91" s="72"/>
+      <c r="I91" s="72"/>
+      <c r="J91" s="72"/>
+      <c r="K91" s="72"/>
+      <c r="L91" s="72"/>
+      <c r="M91" s="72"/>
+      <c r="N91" s="73"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B92" s="3">
         <v>45934</v>
       </c>
-      <c r="C92" s="58"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="59"/>
-      <c r="F92" s="59"/>
-      <c r="G92" s="59"/>
-      <c r="H92" s="59"/>
-      <c r="I92" s="59"/>
-      <c r="J92" s="59"/>
-      <c r="K92" s="59"/>
-      <c r="L92" s="59"/>
-      <c r="M92" s="59"/>
-      <c r="N92" s="60"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
+      <c r="G92" s="65"/>
+      <c r="H92" s="65"/>
+      <c r="I92" s="65"/>
+      <c r="J92" s="65"/>
+      <c r="K92" s="65"/>
+      <c r="L92" s="65"/>
+      <c r="M92" s="65"/>
+      <c r="N92" s="66"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B93" s="3">
         <v>45935</v>
       </c>
-      <c r="C93" s="46" t="s">
+      <c r="C93" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D93" s="47"/>
-      <c r="E93" s="47"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="47"/>
-      <c r="I93" s="47"/>
-      <c r="J93" s="47"/>
-      <c r="K93" s="47"/>
-      <c r="L93" s="47"/>
-      <c r="M93" s="47"/>
-      <c r="N93" s="48"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="50"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="50"/>
+      <c r="I93" s="50"/>
+      <c r="J93" s="50"/>
+      <c r="K93" s="50"/>
+      <c r="L93" s="50"/>
+      <c r="M93" s="50"/>
+      <c r="N93" s="51"/>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B94" s="3">
@@ -3414,20 +3486,20 @@
       <c r="B100" s="3">
         <v>45942</v>
       </c>
-      <c r="C100" s="46" t="s">
+      <c r="C100" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D100" s="47"/>
-      <c r="E100" s="47"/>
-      <c r="F100" s="47"/>
-      <c r="G100" s="47"/>
-      <c r="H100" s="47"/>
-      <c r="I100" s="47"/>
-      <c r="J100" s="47"/>
-      <c r="K100" s="47"/>
-      <c r="L100" s="47"/>
-      <c r="M100" s="47"/>
-      <c r="N100" s="48"/>
+      <c r="D100" s="50"/>
+      <c r="E100" s="50"/>
+      <c r="F100" s="50"/>
+      <c r="G100" s="50"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="50"/>
+      <c r="J100" s="50"/>
+      <c r="K100" s="50"/>
+      <c r="L100" s="50"/>
+      <c r="M100" s="50"/>
+      <c r="N100" s="51"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B101" s="3">
@@ -3489,7 +3561,7 @@
         <v>45946</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="D104" s="19"/>
       <c r="E104" s="19"/>
@@ -3510,7 +3582,7 @@
       <c r="C105" s="19"/>
       <c r="D105" s="19"/>
       <c r="E105" s="19" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F105" s="19"/>
       <c r="G105" s="2"/>
@@ -3526,56 +3598,58 @@
       <c r="B106" s="3">
         <v>45948</v>
       </c>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
+      <c r="C106" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="D106" s="68"/>
+      <c r="E106" s="68"/>
+      <c r="F106" s="68"/>
+      <c r="G106" s="68"/>
+      <c r="H106" s="68"/>
+      <c r="I106" s="68"/>
+      <c r="J106" s="68"/>
+      <c r="K106" s="68"/>
+      <c r="L106" s="68"/>
+      <c r="M106" s="68"/>
+      <c r="N106" s="69"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B107" s="3">
         <v>45949</v>
       </c>
-      <c r="C107" s="46" t="s">
+      <c r="C107" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D107" s="47"/>
-      <c r="E107" s="47"/>
-      <c r="F107" s="47"/>
-      <c r="G107" s="47"/>
-      <c r="H107" s="47"/>
-      <c r="I107" s="47"/>
-      <c r="J107" s="47"/>
-      <c r="K107" s="47"/>
-      <c r="L107" s="47"/>
-      <c r="M107" s="47"/>
-      <c r="N107" s="48"/>
+      <c r="D107" s="50"/>
+      <c r="E107" s="50"/>
+      <c r="F107" s="50"/>
+      <c r="G107" s="50"/>
+      <c r="H107" s="50"/>
+      <c r="I107" s="50"/>
+      <c r="J107" s="50"/>
+      <c r="K107" s="50"/>
+      <c r="L107" s="50"/>
+      <c r="M107" s="50"/>
+      <c r="N107" s="51"/>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B108" s="3">
         <v>45950</v>
       </c>
-      <c r="C108" s="49" t="s">
+      <c r="C108" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="50"/>
-      <c r="E108" s="50"/>
-      <c r="F108" s="50"/>
-      <c r="G108" s="50"/>
-      <c r="H108" s="50"/>
-      <c r="I108" s="50"/>
-      <c r="J108" s="50"/>
-      <c r="K108" s="50"/>
-      <c r="L108" s="50"/>
-      <c r="M108" s="50"/>
-      <c r="N108" s="51"/>
+      <c r="D108" s="68"/>
+      <c r="E108" s="68"/>
+      <c r="F108" s="68"/>
+      <c r="G108" s="68"/>
+      <c r="H108" s="68"/>
+      <c r="I108" s="68"/>
+      <c r="J108" s="68"/>
+      <c r="K108" s="68"/>
+      <c r="L108" s="68"/>
+      <c r="M108" s="68"/>
+      <c r="N108" s="69"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B109" s="3">
@@ -3583,7 +3657,7 @@
       </c>
       <c r="C109" s="19"/>
       <c r="D109" s="19" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="E109" s="19"/>
       <c r="F109" s="19"/>
@@ -3604,7 +3678,7 @@
       <c r="D110" s="19"/>
       <c r="E110" s="19"/>
       <c r="F110" s="19" t="s">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
@@ -3620,7 +3694,7 @@
         <v>45953</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="D111" s="19"/>
       <c r="E111" s="19"/>
@@ -3641,7 +3715,7 @@
       <c r="C112" s="19"/>
       <c r="D112" s="19"/>
       <c r="E112" s="19" t="s">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="F112" s="19"/>
       <c r="G112" s="2"/>
@@ -3653,7 +3727,7 @@
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B113" s="3">
         <v>45955</v>
       </c>
@@ -3670,26 +3744,26 @@
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B114" s="3">
         <v>45956</v>
       </c>
-      <c r="C114" s="46" t="s">
+      <c r="C114" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D114" s="47"/>
-      <c r="E114" s="47"/>
-      <c r="F114" s="47"/>
-      <c r="G114" s="47"/>
-      <c r="H114" s="47"/>
-      <c r="I114" s="47"/>
-      <c r="J114" s="47"/>
-      <c r="K114" s="47"/>
-      <c r="L114" s="47"/>
-      <c r="M114" s="47"/>
-      <c r="N114" s="48"/>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="D114" s="50"/>
+      <c r="E114" s="50"/>
+      <c r="F114" s="50"/>
+      <c r="G114" s="50"/>
+      <c r="H114" s="50"/>
+      <c r="I114" s="50"/>
+      <c r="J114" s="50"/>
+      <c r="K114" s="50"/>
+      <c r="L114" s="50"/>
+      <c r="M114" s="50"/>
+      <c r="N114" s="51"/>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B115" s="3">
         <v>45957</v>
       </c>
@@ -3706,13 +3780,13 @@
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B116" s="3">
         <v>45958</v>
       </c>
       <c r="C116" s="19"/>
       <c r="D116" s="19" t="s">
-        <v>117</v>
+        <v>211</v>
       </c>
       <c r="E116" s="19"/>
       <c r="F116" s="19"/>
@@ -3724,8 +3798,11 @@
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O116" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="117" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B117" s="3">
         <v>45959</v>
       </c>
@@ -3733,7 +3810,7 @@
       <c r="D117" s="19"/>
       <c r="E117" s="19"/>
       <c r="F117" s="19" t="s">
-        <v>117</v>
+        <v>211</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
@@ -3744,7 +3821,7 @@
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B118" s="3">
         <v>45960</v>
       </c>
@@ -3763,7 +3840,7 @@
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B119" s="3">
         <v>45961</v>
       </c>
@@ -3782,7 +3859,7 @@
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B120" s="3">
         <v>45962</v>
       </c>
@@ -3799,26 +3876,29 @@
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B121" s="3">
         <v>45963</v>
       </c>
-      <c r="C121" s="46" t="s">
+      <c r="C121" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D121" s="47"/>
-      <c r="E121" s="47"/>
-      <c r="F121" s="47"/>
-      <c r="G121" s="47"/>
-      <c r="H121" s="47"/>
-      <c r="I121" s="47"/>
-      <c r="J121" s="47"/>
-      <c r="K121" s="47"/>
-      <c r="L121" s="47"/>
-      <c r="M121" s="47"/>
-      <c r="N121" s="48"/>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="D121" s="50"/>
+      <c r="E121" s="50"/>
+      <c r="F121" s="50"/>
+      <c r="G121" s="50"/>
+      <c r="H121" s="50"/>
+      <c r="I121" s="50"/>
+      <c r="J121" s="50"/>
+      <c r="K121" s="50"/>
+      <c r="L121" s="50"/>
+      <c r="M121" s="50"/>
+      <c r="N121" s="51"/>
+      <c r="O121" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="122" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B122" s="3">
         <v>45964</v>
       </c>
@@ -3834,8 +3914,11 @@
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O122" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="123" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B123" s="3">
         <v>45965</v>
       </c>
@@ -3853,27 +3936,33 @@
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O123" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="124" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B124" s="3">
         <v>45966</v>
       </c>
-      <c r="C124" s="49" t="s">
+      <c r="C124" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D124" s="50"/>
-      <c r="E124" s="50"/>
-      <c r="F124" s="50"/>
-      <c r="G124" s="50"/>
-      <c r="H124" s="50"/>
-      <c r="I124" s="50"/>
-      <c r="J124" s="50"/>
-      <c r="K124" s="50"/>
-      <c r="L124" s="50"/>
-      <c r="M124" s="50"/>
-      <c r="N124" s="51"/>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="D124" s="68"/>
+      <c r="E124" s="68"/>
+      <c r="F124" s="68"/>
+      <c r="G124" s="68"/>
+      <c r="H124" s="68"/>
+      <c r="I124" s="68"/>
+      <c r="J124" s="68"/>
+      <c r="K124" s="68"/>
+      <c r="L124" s="68"/>
+      <c r="M124" s="68"/>
+      <c r="N124" s="69"/>
+      <c r="O124" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="125" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B125" s="3">
         <v>45967</v>
       </c>
@@ -3891,8 +3980,11 @@
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O125" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="126" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B126" s="3">
         <v>45968</v>
       </c>
@@ -3910,8 +4002,11 @@
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="O126" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="127" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B127" s="3">
         <v>45969</v>
       </c>
@@ -3927,24 +4022,12 @@
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
+      <c r="O127" t="s">
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="C58:N58"/>
-    <mergeCell ref="C59:N61"/>
-    <mergeCell ref="C63:N64"/>
-    <mergeCell ref="C37:N37"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="C42:N42"/>
-    <mergeCell ref="C43:N43"/>
-    <mergeCell ref="C54:N54"/>
-    <mergeCell ref="C44:N44"/>
-    <mergeCell ref="C51:N51"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="C23:N23"/>
-    <mergeCell ref="C30:N30"/>
+  <mergeCells count="28">
     <mergeCell ref="C65:N65"/>
     <mergeCell ref="C108:N108"/>
     <mergeCell ref="C124:N124"/>
@@ -3957,6 +4040,22 @@
     <mergeCell ref="C87:N92"/>
     <mergeCell ref="C72:N72"/>
     <mergeCell ref="C79:N79"/>
+    <mergeCell ref="C106:N106"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="C23:N23"/>
+    <mergeCell ref="C30:N30"/>
+    <mergeCell ref="C58:N58"/>
+    <mergeCell ref="C59:N61"/>
+    <mergeCell ref="C63:N64"/>
+    <mergeCell ref="C37:N37"/>
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="C42:N42"/>
+    <mergeCell ref="C43:N43"/>
+    <mergeCell ref="C54:N54"/>
+    <mergeCell ref="C44:N44"/>
+    <mergeCell ref="C51:N51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3964,6 +4063,86 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E2:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="57.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E3" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E4" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E5" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E6" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="F7" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <f>SUM(G2:G7)</f>
+        <v>855</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="https://leetcode.com/u/Mayuri_Kasetty/"/>
+    <hyperlink ref="E4" r:id="rId2" display="https://www.geeksforgeeks.org/user/kmayu71ax/"/>
+    <hyperlink ref="E5" r:id="rId3" display="https://www.codechef.com/users/mayuri_kasetty"/>
+    <hyperlink ref="E6" r:id="rId4" display="https://www.hackerrank.com/profile/MAYURI_KASETTY"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:H38"/>
   <sheetViews>
@@ -4444,8 +4623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:T26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4802,7 +4981,9 @@
     </row>
     <row r="19" spans="12:15" x14ac:dyDescent="0.35">
       <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
+      <c r="M19" s="19" t="s">
+        <v>197</v>
+      </c>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
     </row>
@@ -4867,7 +5048,7 @@
   <dimension ref="C4:L14"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I4" sqref="I4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4944,7 +5125,9 @@
       <c r="I6" s="30">
         <v>9</v>
       </c>
-      <c r="J6" s="15"/>
+      <c r="J6" s="30">
+        <v>9</v>
+      </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
     </row>
@@ -4994,9 +5177,15 @@
       <c r="I8" s="30">
         <v>7</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="J8" s="30">
+        <v>7</v>
+      </c>
+      <c r="K8" s="30">
+        <v>7</v>
+      </c>
+      <c r="L8" s="30">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C9" s="23">
@@ -5039,7 +5228,9 @@
       <c r="H10" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="30">
+        <v>7</v>
+      </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
@@ -5067,11 +5258,11 @@
       <c r="J11" s="30">
         <v>7</v>
       </c>
-      <c r="K11" s="15">
-        <v>5</v>
-      </c>
-      <c r="L11" s="15">
-        <v>2</v>
+      <c r="K11" s="30">
+        <v>7</v>
+      </c>
+      <c r="L11" s="30">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.35">
@@ -5085,19 +5276,19 @@
       </c>
       <c r="I12" s="13">
         <f>SUM(I5:I11)</f>
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J12" s="13">
         <f t="shared" ref="J12:L12" si="0">SUM(J5:J11)</f>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K12" s="13">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L12" s="13">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.35">
@@ -5123,10 +5314,265 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D6:O15"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D7" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="L8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="M8" s="19">
+        <v>120</v>
+      </c>
+      <c r="N8" s="19">
+        <v>26</v>
+      </c>
+      <c r="O8" s="19">
+        <f>M8-N8</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D9" s="19">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="L9" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="M9" s="19">
+        <v>140</v>
+      </c>
+      <c r="N9" s="19">
+        <v>49</v>
+      </c>
+      <c r="O9" s="19">
+        <f t="shared" ref="O9:O14" si="0">M9-N9</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D10" s="19">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="L10" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M10" s="19">
+        <v>92</v>
+      </c>
+      <c r="N10" s="19">
+        <v>53</v>
+      </c>
+      <c r="O10" s="19">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D11" s="19">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="L11" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M11" s="19">
+        <v>53</v>
+      </c>
+      <c r="N11" s="19">
+        <v>0</v>
+      </c>
+      <c r="O11" s="19">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D12" s="19">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="19">
+        <v>40</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19">
+        <v>40</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="L12" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M12" s="19">
+        <v>192</v>
+      </c>
+      <c r="N12" s="19">
+        <v>120</v>
+      </c>
+      <c r="O12" s="19">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D13" s="19">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="L13" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="M13" s="19">
+        <v>70</v>
+      </c>
+      <c r="N13" s="19">
+        <v>0</v>
+      </c>
+      <c r="O13" s="19">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D14" s="19">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" s="19">
+        <v>17</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M14" s="19">
+        <v>17</v>
+      </c>
+      <c r="N14" s="19">
+        <v>17</v>
+      </c>
+      <c r="O14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="M15" s="1">
+        <f>SUM(M8:M14)</f>
+        <v>684</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" ref="N15:O15" si="1">SUM(N8:N14)</f>
+        <v>265</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="1"/>
+        <v>419</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5155,13 +5601,13 @@
       <c r="C3" s="19">
         <v>1</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="47" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5169,13 +5615,13 @@
       <c r="C4" s="19">
         <v>2</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="46" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5183,13 +5629,13 @@
       <c r="C5" s="19">
         <v>3</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="46" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5197,13 +5643,13 @@
       <c r="C6" s="19">
         <v>4</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="46" t="s">
         <v>80</v>
       </c>
     </row>
@@ -5211,13 +5657,13 @@
       <c r="C7" s="19">
         <v>5</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="47" t="s">
         <v>82</v>
       </c>
     </row>
@@ -5225,10 +5671,10 @@
       <c r="C8" s="19">
         <v>6</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="46" t="s">
         <v>72</v>
       </c>
       <c r="F8" s="44" t="s">
@@ -5239,10 +5685,10 @@
       <c r="C9" s="19">
         <v>7</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="46" t="s">
         <v>73</v>
       </c>
       <c r="F9" s="36" t="s">
@@ -5253,10 +5699,10 @@
       <c r="C10" s="19">
         <v>8</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="46" t="s">
         <v>74</v>
       </c>
       <c r="F10" s="44" t="s">
@@ -5267,7 +5713,7 @@
       <c r="C11" s="19">
         <v>9</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="46" t="s">
         <v>62</v>
       </c>
       <c r="E11" s="44"/>
@@ -5279,7 +5725,7 @@
       <c r="C12" s="19">
         <v>10</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="46" t="s">
         <v>85</v>
       </c>
       <c r="E12" s="44"/>
@@ -5291,7 +5737,7 @@
       <c r="C13" s="19">
         <v>11</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="46" t="s">
         <v>86</v>
       </c>
       <c r="E13" s="44"/>
@@ -5301,7 +5747,7 @@
       <c r="C14" s="19">
         <v>12</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="46" t="s">
         <v>87</v>
       </c>
       <c r="E14" s="44"/>
@@ -5311,7 +5757,7 @@
       <c r="C15" s="19">
         <v>13</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="46" t="s">
         <v>88</v>
       </c>
       <c r="E15" s="44"/>
@@ -5321,7 +5767,7 @@
       <c r="C16" s="19">
         <v>14</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="46" t="s">
         <v>89</v>
       </c>
       <c r="E16" s="44"/>
@@ -5338,7 +5784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F18"/>
   <sheetViews>
@@ -5555,12 +6001,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5772,7 +6218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5785,84 +6231,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E2:G12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="6" max="6" width="57.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E3" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E4" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E5" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E6" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="F7" s="29" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="G8">
-        <f>SUM(G2:G7)</f>
-        <v>855</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="F12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="https://leetcode.com/u/Mayuri_Kasetty/"/>
-    <hyperlink ref="E4" r:id="rId2" display="https://www.geeksforgeeks.org/user/kmayu71ax/"/>
-    <hyperlink ref="E5" r:id="rId3" display="https://www.codechef.com/users/mayuri_kasetty"/>
-    <hyperlink ref="E6" r:id="rId4" display="https://www.hackerrank.com/profile/MAYURI_KASETTY"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>